--- a/src/main/java/com/crm/qa/TestData/CRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/TestData/CRMTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>LastName</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>companiestest</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Ashwin</t>
+  </si>
+  <si>
+    <t>desp</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>prio</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -374,15 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,6 +461,33 @@
       </c>
       <c r="D6">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
